--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/59_Muğla_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/59_Muğla_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3542D1BF-122B-44F4-9857-06F72E042A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7094413-1097-4EE5-AE23-189B477EE4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B4E5E66-D48C-4591-83D3-7216EABEA5BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D2E9D0EC-4D94-4F1F-9F51-70B99A25BDD1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{18E16820-286B-4809-A445-46AD0FA2FA8C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{103F723A-4927-4147-BC23-632E86110854}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{8EADF19C-B5A1-4E6D-AEED-73EB5C0AA1BD}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{564F66A6-2297-41A4-8C6A-CCD768C11420}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{0F7F27F8-45EC-4EE5-9B5F-1652C2B8DE6A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{4E8E9DCC-5CA7-471B-8200-1F843DA76ED4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{A9107764-316E-4EC3-8E7B-59A44A9A8017}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{97E91E7B-903A-48CF-9F26-B097A76C1CE5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1621D6B7-5CA3-4F6E-AB6C-85D79A4C5C39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC92E09-1BB2-436D-9295-021536D9CC2C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2475,18 +2475,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D0206576-6868-42F7-88D1-2C448BC11EA8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{39E70D2B-B83F-4B9A-BCF6-6A72FCCCF232}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BA0994F4-9DAB-4A2E-864F-5575ADC43646}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F074C154-6DAF-4CF3-99B1-F199F1854443}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3994676E-2276-445A-AFC8-9EC57F518E49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{54570FB7-7942-45AC-B9B4-FA98A09A3645}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{851E34D9-D729-45DE-8243-501453621B0D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0CF9E5E3-4AF2-4089-9793-86E7CDB2A47B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CA454DD0-B4FC-4C26-AF95-92341ADF853C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2EA15795-7FC6-4290-A6BD-093D1757C008}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E4A3EF37-E970-4445-83D8-3BEFE0539F84}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8A60F1D8-9D26-4A71-9376-80DE2C8961DA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{796691B4-DFC7-4E39-8BC2-AD22E0E3DF52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{38EAA0F7-DB67-4251-804B-4226D353A0B5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ED53257B-AF45-4664-B292-A4FBF48A3A74}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64196D09-1218-4F68-ACB6-7BE04A5FB011}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4BB03E89-0B8E-463E-9D5C-ACABC6F5F9EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C79B96D6-2204-4A35-B2C9-88274EC711A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FAC28A22-772F-4175-9339-F4260A1D4A76}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C4084D33-918A-4870-B7F5-8DC19DCED497}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B9BF9E04-0A89-4807-A27A-F9D9414BB306}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF7E3AA7-BA83-447B-8930-C41448EA274B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B12CB785-953A-40B7-B6CF-6074726B9C44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A324BD0-2963-47E1-B675-B68ED922AE36}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1E2045-CEF2-44CF-BED9-C1D697B028E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317B66C4-0E31-42C0-867B-05F05E926BA6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3712,18 +3712,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3BC98AE-67C0-4411-811D-6BA675B45EBE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{87DA57CC-BEBB-4178-8E3A-65DCFEBDA7D1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7843708E-5484-4D9F-B0CD-8231323CE157}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0ACA9E82-08B1-4448-A0D4-C735310A081B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A0AB3C4-E37A-413B-9490-24720C55B033}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{28FF17C1-939B-448E-8569-5BB85CC99C63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{88A39CEC-AD7B-4AFD-9748-6A0DBADF78E3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D828DFD5-F413-487A-9D41-C48C5B0021B9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B15C0395-7B38-4BFC-BD3B-411789A6E0A7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{44FDD8EB-4BEF-4AEC-83A8-E8C54D572527}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{74C5836C-F10A-43CF-BDE2-C3E4A7107B95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8DC598C9-ADFF-4F00-8836-138642043984}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D65AE558-36F9-4ABD-A935-DE15B03016C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{52417C38-B638-43AC-90BF-03D97B88D889}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F8EB3900-0E21-4B7E-BA0D-BB9578BC8C0C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FD6E804D-A4E7-496C-BC90-265A5F686303}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9F2E4C65-F72B-4D7C-A9DB-BB17456A1DE9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5CE17266-CCD0-42BF-B8F6-2A146617F7B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E7E2CFEB-8AFB-4497-8BF3-681E48FC9E86}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B6745366-C6B0-4268-A3C0-046CD509D471}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6D338B8B-B711-4110-94A7-DE1C694E76CD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{82CF5F2F-D9CC-4279-BAC3-580BCD747226}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5D7A8364-E367-4131-9DB4-54C5EEF5AFC3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E53F3AEE-4A95-4CC2-B42F-F5AB4D324FAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3736,7 +3736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEE3038-8E44-4CE4-B40F-5C77B18B7B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F3F4CB-394D-4129-B671-7F4597444387}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4945,18 +4945,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D7505E1C-8666-4F15-9327-76BD6CE4DB2F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{387DD773-C88F-4716-B634-76B156CD8926}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{41DAC193-6C0E-458F-9B71-E75954BC037B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3ADBBFA7-3DB5-4D35-8D53-3491EE4B61CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CF561303-EC6C-45EB-9FE7-EDD063A1A3E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2B035D8F-8294-42DA-A0F8-26C42BCDD9A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{108452DB-E0BA-41B2-9A7B-C2BE8EDC6616}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E72DD816-71AB-4CE6-91F0-F520B5EEB538}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A810CCB-0130-49D9-A195-766FA8CAA4E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{38EF746B-CC46-4726-976C-C499110F4C1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5BE17DA0-D3F5-4A07-93F4-698F5B25D30A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C1976BCD-A787-415B-BE35-B0556E859988}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B02B4C89-8574-4C71-83CE-0BD3ED8F2884}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{793314FB-2B6F-4446-9C07-B591FF6CB598}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D8150D4-9180-4387-84AA-27C565890628}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4283D977-1ADD-4FAB-BA99-B3FB0D4B0FEE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{FB1506A0-18A6-44E6-81B4-567A5B99D6E6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B544CE93-0469-40E4-ADF2-49B4F132C0A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{26D7BC0B-4DDC-4992-8223-A028930F21AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{128AFB67-97A0-4D19-83CB-EEA4A33710B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A2CBF165-5440-4D89-A506-CEACDFECB2E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{47F2AB04-4603-4B5C-976B-3F515AA43823}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1B0CC587-0A37-413F-8A60-6EAA9573CEBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4836D101-1554-47CE-9A63-63BD63461EE4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4969,7 +4969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DAD6B0-502D-4540-A9AC-608D75736A8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E474B7DE-73C5-4778-A680-B1F206DC9D54}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6168,18 +6168,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{88F687B6-D644-4C13-970C-7A7F2EE81212}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{65FCF2B1-A2D6-476F-8885-8F505063B3BB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3EB6BEBB-027F-44C2-9BEB-8FF709463B0F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3F17976B-E9E5-4C21-8537-ACB0FADF2A00}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9A0FFDE1-B73B-4018-BD37-A0A4758A8D6E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8EDA1F24-12D2-4CAB-A180-9CCACAC812FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2F9D335F-4A6E-4D67-A00C-44A98EF4D9C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9AB7CBE1-CFA6-46DB-946E-021F01B4159A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D3E18F38-AB07-4043-BA9D-7A0532056ED2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6FA07A42-43F8-476B-BEEF-9B7FE47B4427}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{43A07A53-BC1E-4C36-99FF-01154A2C650A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4BDF1216-37CC-4805-97EB-DE1A10E4E283}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EA317E19-F719-49CD-A39C-0DC16CC64F3E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{77105AB9-28E7-44F0-BE64-7170138F135D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9B162AF2-1113-4EF9-9F51-CED03A1647A6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AC1171A6-BA5E-4B52-8DA9-D25EC4FBDD8F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{014D442D-59EA-4199-B886-EF8D5E2C8197}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D88F8E88-7F96-4AAE-A1E0-BC933C8552F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9DAD8C9E-930E-42D7-9C22-884FB1372A2C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{03862F40-D074-443B-A360-F5E7F6B3D20E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E846F8B3-C673-40DB-9A5B-F0BA2105C94D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29A379EF-E81A-44E0-B4F2-DCEAE4632DC0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{84DD6BE3-E907-408D-A140-66FAB6C8F4C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AD533122-8525-49D9-A1CF-2E0ECF27D26F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6192,7 +6192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96318FA4-84DC-4C89-BD99-E89037FB2226}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C7B59A-4B22-4A8C-B1EC-2B817E31CC09}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7425,18 +7425,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A242EE4C-94D9-45B5-ADF9-DC372608927F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3B0F4939-4756-4E3C-8202-00E6D7BB1609}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B8AADADF-0FE9-42AF-8E50-4BF31FC0AB6B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AA1CF478-A222-4D39-BDED-C8B8A515A749}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{04C0B138-A9E0-4F9C-A5F8-4EDAFBDC6081}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DD16574E-FD3A-4667-96A0-403B2DB5E4C2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F40292FA-3DB4-49BF-9897-54A2C22817D0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E5A3FA0B-6721-48CE-949F-E9B31BDA79DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3684DB70-285A-48B3-A035-FD72FB14A39E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6231979A-5228-400E-9327-935D39522275}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{65E7EDD3-5553-46BB-ACC9-D90542D6EDDC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{803FC635-4575-4FB1-8AC4-A94181A6DF80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{91989F86-985E-411A-9EF7-DA3933FD77AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5CD27A3D-E4D3-4711-AE24-820F407E32FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7B9E32E-DBB2-4A6F-9252-E0017940D015}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4E4C2EBE-13B1-4C76-9AFB-D892CBDB7AA5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7378D0E0-21DB-433D-BD63-F89B0A65901A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BC94C57C-13FC-4727-B78F-2314D027EB01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CB502C34-010A-4A89-8422-1C65C91F4015}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8993DE88-07B8-4703-84F0-A69D55637DCD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E2ABA15B-3F50-4149-9017-66F822ED0334}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{25841389-9A77-4068-8DE7-D03C06186E14}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EECA63AD-DDE1-4CA2-80A9-80F1C2E8B27A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E7C5192F-3866-4F4E-AFDE-3D93DE457929}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7449,7 +7449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170B2C69-D8A5-4E41-98D6-7D35D01F97D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C1FB02-91F0-49C9-851B-1470676C2D4C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8682,18 +8682,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2561C44B-B07D-4BAC-AA58-4C5868C3D028}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DAD2999B-C752-4A3F-8D12-35A21CD6C766}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FD4938E6-84F9-428F-A245-68CCE7C9BA9A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BD6211EA-3083-43F1-8642-A08493F0DD8A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1DCE57AC-CB9F-4A37-9A8C-20F7F7E7F199}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CE6D1989-FC61-4305-9886-03B55A00B892}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8D0CF1D1-A107-4878-8E2E-3032607376BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{86FAB5B5-D194-498E-993C-CAE73F0B4714}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{96E76DCB-303A-4A0E-AE7E-C1E36DE1A517}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{64D8E870-D657-4F39-BAE5-D20D781A2915}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6C39AF18-ED08-425D-B961-01858EF51957}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{29D3F24C-CC2C-402C-B798-B4A3566CD5D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7D8442B3-1D93-4D80-8DF8-D44480A9E931}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C65B398A-00DD-4892-AECA-6B00FC2DC7F7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A3FF0F61-D3DF-4F91-B413-9F8F403E3DAD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8ABA45B6-27F8-4D10-8651-C9F8A8D48366}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3223E35E-4B4F-4B29-9B71-78A195A3954C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{42389CB8-CF62-4AED-9337-110C98F508CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{725A2674-AA3C-4CBC-B882-A1E2B1EBCE82}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{386B566C-6077-402E-AFB6-E6436012FA99}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{AA227403-83C7-42D6-8F4B-079EC4459DEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DC7172F9-23AA-41CA-BC31-8F3339422F94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{09794CCC-86B5-457D-93EB-3839B1FE7204}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3495F36A-1B5F-4B0F-950B-D607767AF656}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8706,7 +8706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5F0240-8500-43F9-BAD8-7BE3AB413906}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB9A6C4-F31D-4F2A-AA88-D043728554C0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9937,18 +9937,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{594D893B-35F4-4A73-BB2C-4ECEA2C70488}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CB2B9987-4762-4B91-80F2-FB32F7717A70}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{005805B3-0D42-40C1-9D93-30DC541BFEE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D82F93F6-82F9-49AD-B2EF-0F883C752827}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{04853B5E-433E-47AA-85C8-1BB892655066}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2BAEC292-4EB6-48A4-A1EA-16B092333575}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E4077086-08A6-4E4D-BCD7-B15F8DB5E2C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{216F7B59-BAC0-43E7-8B68-73ECEFBEBECD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9E348A06-A654-40A4-A4F5-DD88CB51D804}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5593072E-FA3D-499D-B417-C3783C485D02}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{200003DB-B83D-49E1-BA8E-B15DD0C93B30}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7EEA0810-35A2-472F-99B5-BD0D28F6E76F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{59E8580B-835C-44A7-BF2F-09392D8E6343}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0C6AD9D5-C4FC-4112-88DA-E04146CBA314}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EDE5F489-9817-49A4-B69C-4A3B574C086A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B536BB16-8FF1-4989-8F20-A6DCE4016D8E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{15B5B0B7-E509-4A06-AC9C-75D5295943F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{43810EDE-5A37-4267-B483-6749938D26B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1DDDEA9E-C3D6-4503-97B3-E8F422F29A25}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AD16BF27-9926-488C-8CC6-5002EBBFFC4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{46EF3F3F-4DED-4BA6-92F1-8D8B4C7592D6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BAB1B344-1FBC-417D-8D89-6D29B10E9F8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{091D3ADA-22EA-4E72-848F-F9E204284CCB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DF33D120-B8EF-4936-A349-411621E24B36}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9961,7 +9961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50722A5-DD7C-48D6-97EA-50F146375D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7ADB44-DA29-4713-87E3-431BA96ECFC5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11188,18 +11188,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A7819BE-FE4F-4FC8-8AB5-D9F9703781EA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{77B29E21-43A0-45F4-BD40-0EFF53CDC6AC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E2E7367E-6DA2-43D9-A64A-1673CF145C7D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D82A58C7-50F1-43F3-8FFE-F024E53DB7F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{72F14731-A43F-4A68-B59F-4A54F5217BF0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{01848BC7-FA77-49AA-B6E7-0F6DE3E3DD57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B82167E9-264B-4158-B0B0-823DEC57547C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7D2098E9-9AFE-429C-8323-6975B9B54CE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EABB2EAC-3D50-438B-B789-7D9290E8B7FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7346D608-ED64-439B-A98A-3720D9EEA02D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6FB04C8A-9289-44C2-B97D-3B5F6EAE4F61}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9D7E641C-C1F6-4BD0-A2AC-C4AB0B3D2D12}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9CF945A2-56A5-45AD-936C-13E538D16994}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A785D03-FE0E-4643-9B75-9C8236ED7D83}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{73ED7F07-2E15-4861-806F-6E882E12848D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3888E29A-EF59-45FB-A096-A187E0AF2CDB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{38C61881-3D4A-4910-A005-963F5189E613}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8EC6B661-8C3B-4E4F-97BD-40B1F969BC08}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{08D6102F-5302-43F4-8665-626626376D51}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{EBDEC702-07FD-4EBE-902F-3505514C5E4A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{350EC322-92BE-4B85-BC57-02970088B978}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{970CB099-F758-4C0A-9C8B-01E4653A61ED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4441FAE3-126A-4D50-A773-7D55ECC359F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3D031179-61BC-4096-9FF0-98EAADD4865D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11212,7 +11212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC067A4-AA2E-4EB1-A483-21D5CC36D6F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0CAE47-FACD-47C6-914E-E87A4DCDB953}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12431,18 +12431,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{666DD6DF-0C27-46FB-A486-6591C0F0DAF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{06E43257-CD8A-4609-8B2C-1FE1324D472B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1E5603AF-8776-4030-BE90-A92CA6188C13}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0AA3A9E8-6E84-4747-82B3-0B31E8AB0C85}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{59CFF9D5-93E2-4114-9D2F-0980630E3341}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4ECB607D-BCCB-4C30-9565-1BA553BC4D12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{98299CB8-9BE4-4D8D-9105-715057E7389E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{13A94016-E00D-41CF-AD57-580EEB0F3919}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{46F54D16-D2CB-457C-A345-031EDD0F2B19}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{59660529-561D-47EF-A031-E830A586EE70}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A8A6B6AE-CB58-4854-836D-052D1647589B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D47031C8-3E09-4699-A165-29EA27EB2402}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B5795066-2975-4B5D-8FE8-3F84A42ACC73}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7B78D9A3-21C1-419B-8405-1D93DC996904}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D9890140-104D-4F8C-8625-44515DDBDF76}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B83BA5C-3BC8-4619-A9AA-2A6D3049868E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CEC57BFD-3552-4D99-938D-CB7EF787FA5A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{82F1E3FA-6C2A-41AF-B647-F124F4F39629}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{15A66D49-64AD-4297-A082-1089EB714DB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{850209CD-6B4A-4260-BC96-A2F95BDA390D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{40C03B17-39F1-4432-B2C0-7BCABA9AF5A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{57C98E61-0560-4AC2-9B14-1BC4E162D4D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{46FDA158-2C00-4AC3-949D-3B46BF47D708}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E4A53521-46AB-4A0A-B6B9-166EDA4129DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12455,7 +12455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EA230F-4F27-480C-B6D1-6EAA2B0C039A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF829C5-1D34-4853-9E22-1E412BFCFFC6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13674,18 +13674,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EF4AF16B-906D-4AFA-8071-8511B147BD32}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{42045156-18D6-450D-BFF0-66467526BCB4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{31CAA2E2-4BE0-4480-A952-378EA93B9446}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7B1D696B-D044-47B0-8B61-1E5773E37E3D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{69BC237A-2CBF-4410-BB5B-FB5787234020}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B36015C3-5863-45D1-8AB5-F5F89CCB5688}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5EED8D47-9A7C-425E-8F26-1315A0294A36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5A52BEB4-EB40-4F6D-B447-406C9109B013}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{06A6F724-E625-4FB2-A614-EE26B64B06FB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DCF2F35F-AED7-4F2B-9AC3-9FB997E0D271}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F00D2BED-5834-40B6-A18C-78AFAFDFD010}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C2CEEF99-049D-455B-BE60-B55CEB237736}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7758C433-369C-46D0-8378-4D70F9780146}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{6BF8BC2F-4659-4598-BB54-3F3B95EFB0CE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{740D3173-4EFF-4101-A019-E5161670C7C7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FF595CD5-C075-4900-AED9-47D78071B849}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8FBEB5DB-851A-4811-B500-323E668B0009}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5F824910-CEDF-49BD-8715-E9D61E9602A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C0502C01-7FBE-4D29-BB76-645A6F94EE62}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{69BE69C9-E851-4E49-B631-BA29D6CBE3C1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2B2DDAA4-D682-4FA6-A55C-839C7CBBC6BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CE008FD2-42E1-4D87-A3DA-BB68A19FCFF7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BB5ED780-A19B-41EB-8AA8-391C1088C7E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8C6F24DF-DD25-4315-AE6C-22B5B560A356}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13698,7 +13698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01F7339-79E2-4B56-848A-BABDBA13717A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F447ED78-49F3-4F8B-9E9D-14F6D5A993DD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14913,18 +14913,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{72E229C4-8192-4AD6-83DA-EDEB6E79FEBF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5C2435FE-7E41-4BF8-9981-73B029D0E401}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DD970611-AE47-4D8F-A5D0-8D6EF07C22C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{814DFFBB-7D83-4D19-80B5-F295C432D776}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{27DDB557-F2B6-4A11-ABCE-0CE942893AC0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{604C4BD3-791A-45BD-80F1-AC6B48C96A8D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8A70B981-74DF-44E8-92DC-5A7F1C77B4A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A9E5C3FC-32B8-4ED7-B78D-021691B14544}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CAB90A3D-06CF-4EA0-A19E-151547239A2F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F9791FA-0780-48E6-B606-2627744B5BDB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7FD94ECC-2E5A-4DE5-AB2B-555CAACD0D03}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{91640D12-8469-48D8-875D-36C017648318}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ED8A9B63-9D4B-49CD-A0EF-ACCC71A1BF49}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E490DE66-2DDD-46EC-819E-EE7D51AEC621}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AD57E8C0-9080-4597-A042-C69B1AD1914B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C8F9D916-CA06-4DAB-8CC6-8637D44843EF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8372C65E-C8D2-490F-B9A7-2CFDBFBDC351}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C5C62DF2-957F-4CDA-A646-900BAA590309}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{986257DD-4941-4080-ADF1-C4BE77978066}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{821E8210-1EA9-4164-BA0D-593FB5B67F42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{489A9472-D850-4319-B4D6-6200B68A9338}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{22A5280C-8B30-4F96-BE7A-FF8396A9F3DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{789ACA95-DB2C-4967-A4EA-8182559CA2DA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A14CA12-DB48-4A32-ACA4-E766B4E31AB5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14937,7 +14937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2622627-2E24-49C6-8A1D-67216BD5B76E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED0E21E-4A68-476F-9756-04B050B16854}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16152,18 +16152,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{98C465AC-06E0-40E0-8F5E-D0D55B672A99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5BDB952A-EB00-4262-B86B-76FA8CD26C3B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{BEDAE771-4CDB-4D0A-8AF7-92CF7870E25B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E4AD4FE8-83B2-48B6-BE7B-16434370D4F6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A501509C-4CF5-44F2-BBEC-3442DBCF49B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2DA391D8-E570-4021-B80D-F121DEB88CA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A9D74DCF-B2D5-4AC6-B204-42D17F4AF439}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2F7F99BA-7FE4-478C-BBC2-6C559FD28E64}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{10BD2289-E0C5-4F86-8393-1000FD57DC9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D8880708-88BE-4BD6-98A1-30A1188279D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0DB3A532-5DA4-4794-8A0E-B775A897FE44}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D3F713B5-2106-4C98-B78F-EB501CB4D86B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B8B77560-0824-440A-B761-8ECF30A7A381}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C01A8A6A-CF8A-4269-8EDE-17CC35B73801}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6F61D91D-B9BF-4FB5-BF5A-086C5F3342CF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0AA7917B-FDB2-434C-97C4-31483D7F4FDF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F2672E71-FA24-48D4-BB45-77AC6DB40FFA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{21B9776B-0ADD-4A44-9224-99E58DF3D62F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{497B5053-6AED-4810-A45E-F91DAF9AF204}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6346544B-2EDF-4A8D-BC3C-E152E25281D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1381D119-C761-41BB-B83D-2AF372F7CA32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9D8D636D-4949-443A-8419-6FC3DDDB637E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{81659398-0D9D-49F8-A358-545BD7274E37}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{06694BD7-372F-46C5-8DBC-049AF99D1C5C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
